--- a/APNBlanks.xlsx
+++ b/APNBlanks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="756">
   <si>
     <t>Permit No</t>
   </si>
@@ -34,7 +34,7 @@
     <t>355 Estabrook St, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0082 015 01</t>
+    <t>075 008201501</t>
   </si>
   <si>
     <t>B18-1259</t>
@@ -46,7 +46,7 @@
     <t>214 Peralta Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0177 003 00</t>
+    <t>075 017700300</t>
   </si>
   <si>
     <t>B18-1314</t>
@@ -58,7 +58,7 @@
     <t>755 Dowling Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0297 003 00</t>
+    <t>076 029700300</t>
   </si>
   <si>
     <t>B18-1302</t>
@@ -70,7 +70,7 @@
     <t>700 Victoria Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0299 032 00</t>
+    <t>076 029903200</t>
   </si>
   <si>
     <t>B18-1144</t>
@@ -82,7 +82,7 @@
     <t>426 Diehl Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0333 019 00</t>
+    <t>076 033301900</t>
   </si>
   <si>
     <t>B18-1309</t>
@@ -94,7 +94,7 @@
     <t>950 Ramona Wy, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0434 010 00</t>
+    <t>076 043401000</t>
   </si>
   <si>
     <t>B18-1235</t>
@@ -106,7 +106,7 @@
     <t>755 Rodney Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0494 025 00</t>
+    <t>077 049402500</t>
   </si>
   <si>
     <t>B18-1312</t>
@@ -118,7 +118,7 @@
     <t>642 Dolores Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0510 018 04</t>
+    <t>077 051001804</t>
   </si>
   <si>
     <t>B18-1321</t>
@@ -130,7 +130,7 @@
     <t>675 Maud Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0520 025 00</t>
+    <t>077 052002500</t>
   </si>
   <si>
     <t>B18-1316</t>
@@ -142,7 +142,7 @@
     <t>1503 Scenicview Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0626 048 00</t>
+    <t>077 062604800</t>
   </si>
   <si>
     <t>B18-1318</t>
@@ -154,6 +154,9 @@
     <t>1935 Nome St, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A069400500</t>
+  </si>
+  <si>
     <t>B18-1311</t>
   </si>
   <si>
@@ -163,6 +166,9 @@
     <t>683 Hollyhock Dr, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077C131110600</t>
+  </si>
+  <si>
     <t>B18-1310</t>
   </si>
   <si>
@@ -172,6 +178,9 @@
     <t>1325 136th Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077D141602600</t>
+  </si>
+  <si>
     <t>B18-1323</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t>14305 Bancroft Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E156901203</t>
+  </si>
+  <si>
     <t>B18-1212</t>
   </si>
   <si>
@@ -190,6 +202,9 @@
     <t>1230 Burkhart Av, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G130200200</t>
+  </si>
+  <si>
     <t>B18-1325</t>
   </si>
   <si>
@@ -199,6 +214,9 @@
     <t>15344 Edgemoor St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G130201500</t>
+  </si>
+  <si>
     <t>B18-1211</t>
   </si>
   <si>
@@ -208,6 +226,9 @@
     <t>2218 Charter Wy, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G140900400</t>
+  </si>
+  <si>
     <t>B18-1317</t>
   </si>
   <si>
@@ -217,6 +238,9 @@
     <t>1342 Devonshire Av, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080H158702200</t>
+  </si>
+  <si>
     <t>B18-1315</t>
   </si>
   <si>
@@ -226,7 +250,7 @@
     <t>15325 Tropic Ct, San Leandro, Ca 94579</t>
   </si>
   <si>
-    <t>0412 0006 005 00</t>
+    <t>412 000600500</t>
   </si>
   <si>
     <t>B18-1328</t>
@@ -238,7 +262,7 @@
     <t>627 Broadmoor Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0294 028 00</t>
+    <t>076 029402800</t>
   </si>
   <si>
     <t>B18-0210</t>
@@ -250,6 +274,9 @@
     <t>13700 Doolittle Dr, #102, San Leandro, CA 94577</t>
   </si>
   <si>
+    <t>080G093100105</t>
+  </si>
+  <si>
     <t>B18-1330</t>
   </si>
   <si>
@@ -259,6 +286,9 @@
     <t>15397 Edgemoor St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G130302600</t>
+  </si>
+  <si>
     <t>B18-1336</t>
   </si>
   <si>
@@ -268,6 +298,9 @@
     <t>15086 Alexandria St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080H151400100</t>
+  </si>
+  <si>
     <t>B18-1342</t>
   </si>
   <si>
@@ -277,7 +310,7 @@
     <t>1005 Lee Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0404 020 00</t>
+    <t>076 040402000</t>
   </si>
   <si>
     <t>B18-1339</t>
@@ -289,6 +322,9 @@
     <t>696 Martin Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A065803400</t>
+  </si>
+  <si>
     <t>B18-1341</t>
   </si>
   <si>
@@ -298,6 +334,9 @@
     <t>1068 Midway Av, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A066402700</t>
+  </si>
+  <si>
     <t>B18-1343</t>
   </si>
   <si>
@@ -307,6 +346,9 @@
     <t>1304 135th Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077D141601500</t>
+  </si>
+  <si>
     <t>B18-1338</t>
   </si>
   <si>
@@ -316,6 +358,9 @@
     <t>14840 Wake Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E159900400</t>
+  </si>
+  <si>
     <t>B18-1226</t>
   </si>
   <si>
@@ -325,6 +370,9 @@
     <t>15578 Cranbrook St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G109914600</t>
+  </si>
+  <si>
     <t>B18-0950</t>
   </si>
   <si>
@@ -334,6 +382,9 @@
     <t>1233 Victor Av, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080H155501400</t>
+  </si>
+  <si>
     <t>B18-1345</t>
   </si>
   <si>
@@ -343,7 +394,7 @@
     <t>699 E 14th St, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0075 0176 007 01</t>
+    <t>075 017600701</t>
   </si>
   <si>
     <t>B18-1358</t>
@@ -355,7 +406,7 @@
     <t>380 W Joaquin AVE, #4, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0075 0014 009 01</t>
+    <t>075 001400901</t>
   </si>
   <si>
     <t>B18-1351</t>
@@ -367,7 +418,7 @@
     <t>415 W Broadmoor Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0192 027 00</t>
+    <t>075 019202700</t>
   </si>
   <si>
     <t>B18-1353</t>
@@ -379,7 +430,7 @@
     <t>657 Durant Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0293 034 00</t>
+    <t>076 029303400</t>
   </si>
   <si>
     <t>B18-0974</t>
@@ -391,7 +442,7 @@
     <t>481 Lewis Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0326 021 00</t>
+    <t>076 032602100</t>
   </si>
   <si>
     <t>B18-1374</t>
@@ -403,7 +454,7 @@
     <t>720 Lee Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0398 022 00</t>
+    <t>076 039802200</t>
   </si>
   <si>
     <t>B18-1365</t>
@@ -415,7 +466,7 @@
     <t>864 Collier Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0493 009 00</t>
+    <t>077 049300900</t>
   </si>
   <si>
     <t>B18-1364</t>
@@ -427,7 +478,7 @@
     <t>1601 E 14th St, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0077 0545 043 03</t>
+    <t>077 054504303</t>
   </si>
   <si>
     <t>B18-1367</t>
@@ -439,7 +490,7 @@
     <t>2195 Bradhoff Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0573 017 00</t>
+    <t>077 057301700</t>
   </si>
   <si>
     <t>B18-0954</t>
@@ -451,7 +502,7 @@
     <t>1696 Grand AVE, Unit , San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0077 0600 017 02</t>
+    <t>077 060001702</t>
   </si>
   <si>
     <t>B18-1349</t>
@@ -463,7 +514,7 @@
     <t>1563 View Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0625 001 00</t>
+    <t>077 062500100</t>
   </si>
   <si>
     <t>B18-1368</t>
@@ -475,6 +526,9 @@
     <t>593 Tudor Rd, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A065506100</t>
+  </si>
+  <si>
     <t>B18-1348</t>
   </si>
   <si>
@@ -484,6 +538,9 @@
     <t>1021 Arthur Av, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A066401300</t>
+  </si>
+  <si>
     <t>B18-1282</t>
   </si>
   <si>
@@ -496,6 +553,9 @@
     <t>14818 Acacia St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>077B089600300</t>
+  </si>
+  <si>
     <t>B18-1372</t>
   </si>
   <si>
@@ -505,6 +565,9 @@
     <t>768 Chico Dr, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077B115901100</t>
+  </si>
+  <si>
     <t>B18-1096</t>
   </si>
   <si>
@@ -514,6 +577,9 @@
     <t>2999 Teagarden St, San Leandro, CA 94577</t>
   </si>
   <si>
+    <t>077B120103202</t>
+  </si>
+  <si>
     <t>B18-1346</t>
   </si>
   <si>
@@ -523,6 +589,9 @@
     <t>485 Violet St, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077C127000400</t>
+  </si>
+  <si>
     <t>B18-1373</t>
   </si>
   <si>
@@ -532,6 +601,9 @@
     <t>1741 Russ Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E158100100</t>
+  </si>
+  <si>
     <t>B18-1281</t>
   </si>
   <si>
@@ -541,6 +613,9 @@
     <t>14648 Sylvia Wy, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E158602300</t>
+  </si>
+  <si>
     <t>B18-1360</t>
   </si>
   <si>
@@ -550,6 +625,9 @@
     <t>1541 Vining Dr, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G111109200</t>
+  </si>
+  <si>
     <t>B18-1376</t>
   </si>
   <si>
@@ -559,6 +637,9 @@
     <t>1753 Manor Bl, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080H159300600</t>
+  </si>
+  <si>
     <t>B18-1385</t>
   </si>
   <si>
@@ -568,7 +649,7 @@
     <t>1039 Lucille St, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0148 002 01</t>
+    <t>075 014800201</t>
   </si>
   <si>
     <t>B18-1382</t>
@@ -580,7 +661,7 @@
     <t>1059 Broadmoor Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0316 019 00</t>
+    <t>076 031601900</t>
   </si>
   <si>
     <t>B18-1384</t>
@@ -592,7 +673,7 @@
     <t>477 Callan Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0460 004 02</t>
+    <t>077 046000402</t>
   </si>
   <si>
     <t>B18-1380</t>
@@ -604,7 +685,7 @@
     <t>1825 Bancroft Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0530 002 00</t>
+    <t>077 053000200</t>
   </si>
   <si>
     <t>B17-2050</t>
@@ -616,7 +697,7 @@
     <t>2192 E 14th St, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0571 038 00</t>
+    <t>077 057103800</t>
   </si>
   <si>
     <t>B18-1337</t>
@@ -628,6 +709,9 @@
     <t>2500 Merced St, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A064700948</t>
+  </si>
+  <si>
     <t>B18-1386</t>
   </si>
   <si>
@@ -637,6 +721,9 @@
     <t>1041 Melcher St, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A065401200</t>
+  </si>
+  <si>
     <t>B18-1379</t>
   </si>
   <si>
@@ -646,6 +733,9 @@
     <t>3905 Carmel Wy, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077B112800100</t>
+  </si>
+  <si>
     <t>B18-1383</t>
   </si>
   <si>
@@ -655,6 +745,9 @@
     <t>3536 Monterey Bl, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077B116903500</t>
+  </si>
+  <si>
     <t>B18-1363</t>
   </si>
   <si>
@@ -664,6 +757,9 @@
     <t>1622 143rd Av, Bldg , San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E158001500</t>
+  </si>
+  <si>
     <t>B18-0260</t>
   </si>
   <si>
@@ -673,6 +769,9 @@
     <t>1933 Davis St, #135B, San Leandro, CA 94577</t>
   </si>
   <si>
+    <t>079A039500617</t>
+  </si>
+  <si>
     <t>B18-1387</t>
   </si>
   <si>
@@ -682,6 +781,9 @@
     <t>2375 Bermuda Av, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>080G092708200</t>
+  </si>
+  <si>
     <t>B18-1362</t>
   </si>
   <si>
@@ -691,6 +793,9 @@
     <t>15567 Montreal St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G110310600</t>
+  </si>
+  <si>
     <t>B18-1388</t>
   </si>
   <si>
@@ -700,6 +805,9 @@
     <t>1717 Nelson St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G110312500</t>
+  </si>
+  <si>
     <t>B18-1393</t>
   </si>
   <si>
@@ -709,6 +817,9 @@
     <t>1048 Kramer St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G111208500</t>
+  </si>
+  <si>
     <t>B18-0170</t>
   </si>
   <si>
@@ -718,6 +829,9 @@
     <t>15052 Farnsworth St, San Leandro, CA 94579</t>
   </si>
   <si>
+    <t>080G137200100</t>
+  </si>
+  <si>
     <t>B18-1371</t>
   </si>
   <si>
@@ -727,6 +841,9 @@
     <t>1273 Oberlin Av, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080H158000600</t>
+  </si>
+  <si>
     <t>B18-1399</t>
   </si>
   <si>
@@ -736,7 +853,7 @@
     <t>591 Pershing Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0183 003 00</t>
+    <t>075 018300300</t>
   </si>
   <si>
     <t>B18-1396</t>
@@ -748,7 +865,7 @@
     <t>365 Breed Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0274 005 00</t>
+    <t>076 027400500</t>
   </si>
   <si>
     <t>B18-1394</t>
@@ -760,7 +877,7 @@
     <t>530 Fortuna Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0336 015 00</t>
+    <t>076 033601500</t>
   </si>
   <si>
     <t>B18-1340</t>
@@ -772,7 +889,7 @@
     <t>687 Dolores Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0509 035 00</t>
+    <t>077 050903500</t>
   </si>
   <si>
     <t>B18-1166</t>
@@ -784,7 +901,7 @@
     <t>1600 Washington AVE, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0077 0545 040 01</t>
+    <t>077 054504001</t>
   </si>
   <si>
     <t>B18-1395</t>
@@ -796,6 +913,9 @@
     <t>1766 Lanier Av, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G132111400</t>
+  </si>
+  <si>
     <t>B18-1022</t>
   </si>
   <si>
@@ -805,7 +925,7 @@
     <t>1349 Hays St, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0014 006 00</t>
+    <t>075 001400600</t>
   </si>
   <si>
     <t>B18-1306</t>
@@ -820,7 +940,7 @@
     <t>1275 Washington AVE, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0075 0226 003 00</t>
+    <t>075 022600300</t>
   </si>
   <si>
     <t>B18-1405</t>
@@ -832,7 +952,7 @@
     <t>293 Broadmoor Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0273 046 00</t>
+    <t>076 027304600</t>
   </si>
   <si>
     <t>B18-1240</t>
@@ -844,7 +964,7 @@
     <t>1515 Regent Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0626 041 00</t>
+    <t>077 062604100</t>
   </si>
   <si>
     <t>B18-1409</t>
@@ -856,6 +976,9 @@
     <t>975 Crespi Dr, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077B112702000</t>
+  </si>
+  <si>
     <t>B18-1408</t>
   </si>
   <si>
@@ -865,6 +988,9 @@
     <t>3519 Del Monte Wy, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077B116900100</t>
+  </si>
+  <si>
     <t>B18-0949</t>
   </si>
   <si>
@@ -874,6 +1000,9 @@
     <t>13507 Rose Dr, San Leandro, CA 94578</t>
   </si>
   <si>
+    <t>077D141001902</t>
+  </si>
+  <si>
     <t>B18-1403</t>
   </si>
   <si>
@@ -883,6 +1012,9 @@
     <t>1614 136th Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E153601300</t>
+  </si>
+  <si>
     <t>B18-1400</t>
   </si>
   <si>
@@ -892,6 +1024,9 @@
     <t>2260 Belvedere Av, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>080G092914600</t>
+  </si>
+  <si>
     <t>B18-1412</t>
   </si>
   <si>
@@ -901,7 +1036,7 @@
     <t>495 Fortuna Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0333 010 00</t>
+    <t>076 033301000</t>
   </si>
   <si>
     <t>B18-1414</t>
@@ -913,7 +1048,7 @@
     <t>1033 Begier Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0359 013 00</t>
+    <t>076 035901300</t>
   </si>
   <si>
     <t>B18-0810</t>
@@ -925,7 +1060,7 @@
     <t>604 Oakes Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0360 021 00</t>
+    <t>076 036002100</t>
   </si>
   <si>
     <t>B18-1187</t>
@@ -937,6 +1072,9 @@
     <t>2015 Laura Av, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A065514401</t>
+  </si>
+  <si>
     <t>B18-0527</t>
   </si>
   <si>
@@ -946,6 +1084,9 @@
     <t>14710 Wicks Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077B085103703</t>
+  </si>
+  <si>
     <t>B18-1413</t>
   </si>
   <si>
@@ -958,6 +1099,9 @@
     <t>1353 Lillian Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077D146900500</t>
+  </si>
+  <si>
     <t>B18-1415</t>
   </si>
   <si>
@@ -967,6 +1111,9 @@
     <t>1636 137th Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E154201600</t>
+  </si>
+  <si>
     <t>B18-1319</t>
   </si>
   <si>
@@ -976,6 +1123,9 @@
     <t>1587 140th Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E154900200</t>
+  </si>
+  <si>
     <t>B18-1417</t>
   </si>
   <si>
@@ -985,7 +1135,7 @@
     <t>1671 Scenicview Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0079 0025 027 00</t>
+    <t>079 002502700</t>
   </si>
   <si>
     <t>B18-1401</t>
@@ -997,6 +1147,9 @@
     <t>15540 Budge St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G111304700</t>
+  </si>
+  <si>
     <t>B18-0519</t>
   </si>
   <si>
@@ -1006,6 +1159,9 @@
     <t>15312 Churchill St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G130001700</t>
+  </si>
+  <si>
     <t>B18-1418</t>
   </si>
   <si>
@@ -1015,6 +1171,9 @@
     <t>15106 Edgemoor St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080H150002300</t>
+  </si>
+  <si>
     <t>B18-1427</t>
   </si>
   <si>
@@ -1024,7 +1183,7 @@
     <t>530 Glen Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0400 011 00</t>
+    <t>076 040001100</t>
   </si>
   <si>
     <t>B18-1397</t>
@@ -1036,7 +1195,7 @@
     <t>811 Juana Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0510 008 07</t>
+    <t>077 051000807</t>
   </si>
   <si>
     <t>B18-1423</t>
@@ -1048,7 +1207,7 @@
     <t>1206 Sandelin Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0629 021 00</t>
+    <t>077 062902100</t>
   </si>
   <si>
     <t>B18-1320</t>
@@ -1060,6 +1219,9 @@
     <t>1488 Gardner Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A062902700</t>
+  </si>
+  <si>
     <t>B18-1205</t>
   </si>
   <si>
@@ -1069,6 +1231,9 @@
     <t>1326 Lillian Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077D147301400</t>
+  </si>
+  <si>
     <t>B18-1428</t>
   </si>
   <si>
@@ -1078,6 +1243,9 @@
     <t>14991 Western Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077D148500600</t>
+  </si>
+  <si>
     <t>B18-0840</t>
   </si>
   <si>
@@ -1087,7 +1255,7 @@
     <t>794 Davis St, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0057 013 03</t>
+    <t>075 005701303</t>
   </si>
   <si>
     <t>B18-1433</t>
@@ -1099,7 +1267,7 @@
     <t>176 California Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0165 014 00</t>
+    <t>075 016501400</t>
   </si>
   <si>
     <t>B18-1432</t>
@@ -1111,7 +1279,7 @@
     <t>975 Helen Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0308 035 00</t>
+    <t>076 030803500</t>
   </si>
   <si>
     <t>B18-1329</t>
@@ -1123,7 +1291,7 @@
     <t>301 Dutton Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0411 019 00</t>
+    <t>076 041101900</t>
   </si>
   <si>
     <t>B18-1436</t>
@@ -1135,7 +1303,7 @@
     <t>763 Joaquin Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0514 019 00</t>
+    <t>077 051401900</t>
   </si>
   <si>
     <t>B18-0540</t>
@@ -1147,7 +1315,7 @@
     <t>568 Juana Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0526 004 00</t>
+    <t>077 052600400</t>
   </si>
   <si>
     <t>B18-0669</t>
@@ -1159,6 +1327,9 @@
     <t>1980 West Avenue 140th, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077B085301900</t>
+  </si>
+  <si>
     <t>B18-1037</t>
   </si>
   <si>
@@ -1168,6 +1339,9 @@
     <t>1932 Fairway Dr, San Leandro, CA 94577</t>
   </si>
   <si>
+    <t>077B085303501</t>
+  </si>
+  <si>
     <t>B18-1431</t>
   </si>
   <si>
@@ -1177,6 +1351,9 @@
     <t>1460 142nd Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E156900400</t>
+  </si>
+  <si>
     <t>B18-0404</t>
   </si>
   <si>
@@ -1186,6 +1363,9 @@
     <t>1271 Marina Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>079A029500304</t>
+  </si>
+  <si>
     <t>B18-0721</t>
   </si>
   <si>
@@ -1195,6 +1375,9 @@
     <t>2010 Williams St, #ABC, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>079A037500751</t>
+  </si>
+  <si>
     <t>B18-1441</t>
   </si>
   <si>
@@ -1204,7 +1387,7 @@
     <t>356 Belleview Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0191 009 00</t>
+    <t>075 019100900</t>
   </si>
   <si>
     <t>B18-1392</t>
@@ -1216,7 +1399,7 @@
     <t>709 Matoza Ln, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0208 094 00</t>
+    <t>075 020809400</t>
   </si>
   <si>
     <t>B18-0397</t>
@@ -1228,7 +1411,7 @@
     <t>528 WEST JUANA Av, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0075 0230 001 00</t>
+    <t>075 023000100</t>
   </si>
   <si>
     <t>B18-0296</t>
@@ -1240,7 +1423,7 @@
     <t>575 Lewis Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0327 013 00</t>
+    <t>076 032701300</t>
   </si>
   <si>
     <t>B18-1447</t>
@@ -1252,7 +1435,7 @@
     <t>701 Saint Mary Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0352 002 00</t>
+    <t>076 035200200</t>
   </si>
   <si>
     <t>B18-1442</t>
@@ -1264,7 +1447,7 @@
     <t>161 Begier Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0414 021 04</t>
+    <t>076 041402104</t>
   </si>
   <si>
     <t>B18-1357</t>
@@ -1279,6 +1462,9 @@
     <t>1083 Midway Av, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A066501300</t>
+  </si>
+  <si>
     <t>B18-1440</t>
   </si>
   <si>
@@ -1288,6 +1474,9 @@
     <t>1638 139th Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E155001500</t>
+  </si>
+  <si>
     <t>B18-1446</t>
   </si>
   <si>
@@ -1297,7 +1486,7 @@
     <t>2514 Harborview Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0079 0027 026 00</t>
+    <t>079 002702600</t>
   </si>
   <si>
     <t>B18-1356</t>
@@ -1309,6 +1498,9 @@
     <t>13859 Santiago Rd, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>080G092701000</t>
+  </si>
+  <si>
     <t>B18-1327</t>
   </si>
   <si>
@@ -1318,6 +1510,9 @@
     <t>2259 Regatta Wy, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G132501400</t>
+  </si>
+  <si>
     <t>B18-1435</t>
   </si>
   <si>
@@ -1327,6 +1522,9 @@
     <t>2509 Galleon Pl, San Leandro, CA 94577</t>
   </si>
   <si>
+    <t>080G140511000</t>
+  </si>
+  <si>
     <t>B18-1453</t>
   </si>
   <si>
@@ -1336,7 +1534,7 @@
     <t>341 Castro St, #2, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0075 0073 017 00</t>
+    <t>075 007301700</t>
   </si>
   <si>
     <t>B18-1449</t>
@@ -1348,7 +1546,7 @@
     <t>450 Lewis Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0328 021 00</t>
+    <t>076 032802100</t>
   </si>
   <si>
     <t>B18-1450</t>
@@ -1360,7 +1558,7 @@
     <t>1140 Jefferson St, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0456 006 00</t>
+    <t>077 045600600</t>
   </si>
   <si>
     <t>B18-1452</t>
@@ -1372,7 +1570,7 @@
     <t>631 Joaquin Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0523 015 00</t>
+    <t>077 052301500</t>
   </si>
   <si>
     <t>B18-1143</t>
@@ -1384,7 +1582,7 @@
     <t>1371 E 14th St, #D, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0077 0545 007 00</t>
+    <t>077 054500700</t>
   </si>
   <si>
     <t>B18-1455</t>
@@ -1396,6 +1594,9 @@
     <t>1960 Lewelling Bl, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G109900100</t>
+  </si>
+  <si>
     <t>B18-1454</t>
   </si>
   <si>
@@ -1405,6 +1606,9 @@
     <t>1552 Arena St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G132207500</t>
+  </si>
+  <si>
     <t>B18-1451</t>
   </si>
   <si>
@@ -1414,6 +1618,9 @@
     <t>728 Greer Av, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080H151501000</t>
+  </si>
+  <si>
     <t>B18-0525</t>
   </si>
   <si>
@@ -1423,7 +1630,7 @@
     <t>48 Cambridge Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0273 022 00</t>
+    <t>076 027302200</t>
   </si>
   <si>
     <t>B18-1438</t>
@@ -1435,7 +1642,7 @@
     <t>416 E 14th St, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0076 0276 061 00</t>
+    <t>076 027606100</t>
   </si>
   <si>
     <t>B18-1406</t>
@@ -1447,7 +1654,7 @@
     <t>350 Beverly Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0286 029 02</t>
+    <t>076 028602902</t>
   </si>
   <si>
     <t>B18-1465</t>
@@ -1459,7 +1666,7 @@
     <t>869 Durant Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0300 018 01</t>
+    <t>076 030001801</t>
   </si>
   <si>
     <t>B18-1458</t>
@@ -1471,7 +1678,7 @@
     <t>1256 Glen Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0354 013 01</t>
+    <t>076 035401301</t>
   </si>
   <si>
     <t>B18-1354</t>
@@ -1486,6 +1693,9 @@
     <t>907 Midway Av, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A066801500</t>
+  </si>
+  <si>
     <t>B18-1460</t>
   </si>
   <si>
@@ -1498,6 +1708,9 @@
     <t>1820 Lopez Dr, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E156502400</t>
+  </si>
+  <si>
     <t>B18-0836</t>
   </si>
   <si>
@@ -1507,6 +1720,9 @@
     <t>13415 Doolittle Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>079A057600102</t>
+  </si>
+  <si>
     <t>B18-0695</t>
   </si>
   <si>
@@ -1522,6 +1738,9 @@
     <t>15540 Harbor Wy, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G140908500</t>
+  </si>
+  <si>
     <t>B18-1475</t>
   </si>
   <si>
@@ -1531,7 +1750,7 @@
     <t>303 Harlan St, #A, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0075 0075 020 03</t>
+    <t>075 007502003</t>
   </si>
   <si>
     <t>B18-1469</t>
@@ -1543,7 +1762,7 @@
     <t>510 Dowling Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0289 022 01</t>
+    <t>076 028902201</t>
   </si>
   <si>
     <t>B18-1472</t>
@@ -1555,7 +1774,7 @@
     <t>605 BROADMOOR Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0294 023 00</t>
+    <t>076 029402300</t>
   </si>
   <si>
     <t>B18-1378</t>
@@ -1567,7 +1786,7 @@
     <t>498 Superior Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0330 015 00</t>
+    <t>076 033001500</t>
   </si>
   <si>
     <t>B18-1470</t>
@@ -1579,7 +1798,7 @@
     <t>915 Dutton Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0357 005 00</t>
+    <t>076 035700500</t>
   </si>
   <si>
     <t>B18-1471</t>
@@ -1591,6 +1810,9 @@
     <t>518 Tiffany Rd, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A065203700</t>
+  </si>
+  <si>
     <t>B18-1462</t>
   </si>
   <si>
@@ -1600,6 +1822,9 @@
     <t>3463 Monogram Rd, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077B122704600</t>
+  </si>
+  <si>
     <t>B18-0305</t>
   </si>
   <si>
@@ -1609,6 +1834,9 @@
     <t>15555 E 14th St, #220, San Leandro, CA 94578</t>
   </si>
   <si>
+    <t>077D149003000</t>
+  </si>
+  <si>
     <t>B18-1026</t>
   </si>
   <si>
@@ -1624,6 +1852,9 @@
     <t>2447 Jamaica Wy, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>080G092600600</t>
+  </si>
+  <si>
     <t>B18-0344</t>
   </si>
   <si>
@@ -1633,7 +1864,7 @@
     <t>699 Lewelling Bl, San Leandro, Ca 94579</t>
   </si>
   <si>
-    <t>0412 0001 009 00</t>
+    <t>412 000100900</t>
   </si>
   <si>
     <t>B18-1489</t>
@@ -1651,7 +1882,7 @@
     <t>550 Dowling Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0289 018 00</t>
+    <t>076 028901800</t>
   </si>
   <si>
     <t>B18-1480</t>
@@ -1663,7 +1894,7 @@
     <t>1069 San Jose St, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0489 017 00</t>
+    <t>077 048901700</t>
   </si>
   <si>
     <t>B18-1448</t>
@@ -1675,7 +1906,7 @@
     <t>750 Bridge Rd, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0490 009 00</t>
+    <t>077 049000900</t>
   </si>
   <si>
     <t>B18-1481</t>
@@ -1687,6 +1918,9 @@
     <t>1479 Wayne Av, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A062900900</t>
+  </si>
+  <si>
     <t>B18-1492</t>
   </si>
   <si>
@@ -1696,6 +1930,9 @@
     <t>1522 Redwood Av, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>077B088801200</t>
+  </si>
+  <si>
     <t>B18-1482</t>
   </si>
   <si>
@@ -1705,7 +1942,7 @@
     <t>1220 Daily Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0079 0016 079 00</t>
+    <t>079 001607900</t>
   </si>
   <si>
     <t>B18-1485</t>
@@ -1717,6 +1954,9 @@
     <t>2343 Belvedere Av, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>080G092910300</t>
+  </si>
+  <si>
     <t>B18-1483</t>
   </si>
   <si>
@@ -1726,6 +1966,9 @@
     <t>1690 Burkhart Av, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G132308400</t>
+  </si>
+  <si>
     <t>B18-1490</t>
   </si>
   <si>
@@ -1735,6 +1978,9 @@
     <t>2201 Oceanside Wy, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G140903200</t>
+  </si>
+  <si>
     <t>B18-0503</t>
   </si>
   <si>
@@ -1744,6 +1990,9 @@
     <t>722 Greer Av, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080H151501100</t>
+  </si>
+  <si>
     <t>B18-1488</t>
   </si>
   <si>
@@ -1753,6 +2002,9 @@
     <t>14742 Wiley St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080H157704400</t>
+  </si>
+  <si>
     <t>B17-1440</t>
   </si>
   <si>
@@ -1762,7 +2014,7 @@
     <t>1117 E 14th St, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0001 002 02</t>
+    <t>075 000100202</t>
   </si>
   <si>
     <t>B18-0071</t>
@@ -1774,7 +2026,7 @@
     <t>1849 Clarke St, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0069 004 00</t>
+    <t>075 006900400</t>
   </si>
   <si>
     <t>B18-1502</t>
@@ -1786,7 +2038,7 @@
     <t>251 W Broadmoor Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0194 024 00</t>
+    <t>075 019402400</t>
   </si>
   <si>
     <t>B18-1501</t>
@@ -1798,7 +2050,7 @@
     <t>135 Farrelly Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0075 0196 045 00</t>
+    <t>075 019604500</t>
   </si>
   <si>
     <t>B18-1503</t>
@@ -1810,7 +2062,7 @@
     <t>100 Warwick Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0291 001 00</t>
+    <t>076 029100100</t>
   </si>
   <si>
     <t>B17-2355</t>
@@ -1822,7 +2074,7 @@
     <t>1000 E 14th St, San Leandro, CA 94577</t>
   </si>
   <si>
-    <t>0076 0440 014 07</t>
+    <t>076 044001407</t>
   </si>
   <si>
     <t>B18-1506</t>
@@ -1834,6 +2086,9 @@
     <t>656 Black Pine Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A067104300</t>
+  </si>
+  <si>
     <t>B18-1479</t>
   </si>
   <si>
@@ -1843,6 +2098,9 @@
     <t>14929 Ebb Tide St, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077C131404100</t>
+  </si>
+  <si>
     <t>B18-1494</t>
   </si>
   <si>
@@ -1852,6 +2110,9 @@
     <t>1555 141st Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E155400400</t>
+  </si>
+  <si>
     <t>B18-1500</t>
   </si>
   <si>
@@ -1861,7 +2122,7 @@
     <t>2677 Marineview Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0079 0027 077 00</t>
+    <t>079 002707700</t>
   </si>
   <si>
     <t>B18-1498</t>
@@ -1873,7 +2134,7 @@
     <t>1333 Sandelin Ct, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0079 0099 014 03</t>
+    <t>079 009901403</t>
   </si>
   <si>
     <t>B18-1233</t>
@@ -1885,6 +2146,9 @@
     <t>2235 Polvorosa AVE, #260, San Leandro, CA 94577</t>
   </si>
   <si>
+    <t>079A054104300</t>
+  </si>
+  <si>
     <t>B18-0872</t>
   </si>
   <si>
@@ -1894,7 +2158,7 @@
     <t>699 Lewelling Bl, Unit 35, SAN LEANDRO, CA</t>
   </si>
   <si>
-    <t>0412 0001 007 03</t>
+    <t>412 000100703</t>
   </si>
   <si>
     <t>B18-1495</t>
@@ -1909,7 +2173,7 @@
     <t>231 Kenilworth Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0293 002 00</t>
+    <t>076 029300200</t>
   </si>
   <si>
     <t>B18-1508</t>
@@ -1921,7 +2185,7 @@
     <t>1324 Oakes Bl, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0356 018 00</t>
+    <t>076 035601800</t>
   </si>
   <si>
     <t>B18-1420</t>
@@ -1933,7 +2197,7 @@
     <t>562 Pala Av, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0076 0392 010 00</t>
+    <t>076 039201000</t>
   </si>
   <si>
     <t>B18-1059</t>
@@ -1945,7 +2209,7 @@
     <t>687 Valita Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
-    <t>0077 0573 025 00</t>
+    <t>077 057302500</t>
   </si>
   <si>
     <t>B18-1507</t>
@@ -1957,6 +2221,9 @@
     <t>1613 Timothy Dr, San Leandro, Ca 94577</t>
   </si>
   <si>
+    <t>077A064104200</t>
+  </si>
+  <si>
     <t>B18-1513</t>
   </si>
   <si>
@@ -1966,6 +2233,9 @@
     <t>1738 136th Av, San Leandro, Ca 94578</t>
   </si>
   <si>
+    <t>077E153501500</t>
+  </si>
+  <si>
     <t>B18-0647</t>
   </si>
   <si>
@@ -1975,6 +2245,9 @@
     <t>1900 Davis St, San Leandro, CA 94577</t>
   </si>
   <si>
+    <t>079A040701300</t>
+  </si>
+  <si>
     <t>B18-1514</t>
   </si>
   <si>
@@ -1984,6 +2257,9 @@
     <t>2327 Marina BLVD, San Leandro, CA 94577</t>
   </si>
   <si>
+    <t>079A056700500</t>
+  </si>
+  <si>
     <t>B18-1510</t>
   </si>
   <si>
@@ -1993,6 +2269,9 @@
     <t>1210 Breckenridge St, San Leandro, Ca 94579</t>
   </si>
   <si>
+    <t>080G111201900</t>
+  </si>
+  <si>
     <t>B18-1509</t>
   </si>
   <si>
@@ -2000,6 +2279,9 @@
   </si>
   <si>
     <t>15578 Baypoint Av, San Leandro, Ca 94579</t>
+  </si>
+  <si>
+    <t>080G140922800</t>
   </si>
 </sst>
 </file>
@@ -2397,10 +2679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F156" sqref="F156"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -2410,7 +2692,7 @@
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2420,11 +2702,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2434,11 +2716,11 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2448,11 +2730,11 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2462,11 +2744,11 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2476,11 +2758,11 @@
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -2490,11 +2772,11 @@
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2504,11 +2786,11 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -2518,11 +2800,11 @@
       <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -2532,11 +2814,11 @@
       <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -2546,11 +2828,11 @@
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -2560,11 +2842,11 @@
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -2574,2584 +2856,2584 @@
       <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="F29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="F45" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="46" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F65" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F69" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F73" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F76" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F77" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F79" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F81" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F82" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F83" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F84" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F86" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F87" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F88" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F89" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F91" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F93" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F94" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F95" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F96" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F97" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F98" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F99" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F100" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F101" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F102" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F103" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F104" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F105" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F106" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F107" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F108" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F109" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F110" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F112" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F113" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F114" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F115" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F116" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F117" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F118" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F119" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F120" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F121" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F122" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="F123" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G51" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G57" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G61" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G62" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G64" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G65" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G66" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G67" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G68" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C69" s="5" t="s">
+    </row>
+    <row r="124" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F124" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F125" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F126" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F127" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F128" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="F129" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F130" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F131" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F132" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F133" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F134" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="F135" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F136" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F137" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F138" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F139" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F140" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F141" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F142" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G69" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="C143" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="F143" t="s">
         <v>235</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G70" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G71" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G72" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G73" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G74" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G75" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G76" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G77" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G78" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G79" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    </row>
+    <row r="144" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F144" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F145" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F146" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F147" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="C148" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F148" t="s">
         <v>271</v>
       </c>
-      <c r="G80" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G81" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G82" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G83" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G85" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G86" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G87" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G88" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G89" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C90" s="5" t="s">
+    </row>
+    <row r="149" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F149" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F150" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F151" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F152" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F153" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="F154" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F155" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="F156" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F157" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="F158" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F159" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F160" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G90" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="C161" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F161" t="s">
         <v>308</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G91" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G92" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G93" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G94" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G95" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G96" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G97" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G98" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G99" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G100" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G101" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="G102" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G103" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G104" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="G105" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G106" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G107" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="G108" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G109" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G110" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G111" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G112" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="G113" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G114" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="G115" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G116" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G117" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="118" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G118" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="G119" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="G120" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="G121" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G122" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G124" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="G125" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="G126" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="G127" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G128" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G129" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="G130" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="G131" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G132" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G133" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="G134" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="G135" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="G136" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="G137" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="G138" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G139" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G140" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="G141" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="G142" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G143" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="G144" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="G145" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="G146" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G147" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="G148" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="149" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="G149" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="G150" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="G151" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="G152" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="153" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="G153" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="G154" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="155" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="G155" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="156" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="G156" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="157" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="G157" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="G158" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="G159" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="G160" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="161" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="G161" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="G162" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="F162" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="G163" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+      <c r="F163" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>550</v>
+        <v>627</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>551</v>
+        <v>628</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="G164" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+      <c r="F164" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="G165" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="F165" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>557</v>
+        <v>635</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>558</v>
+        <v>636</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="G166" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="167" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+      <c r="F166" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="G167" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="168" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="F167" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>564</v>
+        <v>643</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>565</v>
+        <v>644</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="G168" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="169" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+      <c r="F168" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="G169" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="F169" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="G170" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="171" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+      <c r="F170" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>574</v>
+        <v>656</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="G171" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="172" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="F171" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>577</v>
+        <v>660</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G172" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="173" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="F172" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>580</v>
+        <v>664</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="G173" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="174" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="F173" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>584</v>
+        <v>668</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="G174" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="175" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="F174" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>587</v>
+        <v>671</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="G175" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="176" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="F175" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>591</v>
+        <v>675</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>592</v>
+        <v>676</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="G176" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="177" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+      <c r="F176" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>595</v>
+        <v>679</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>596</v>
+        <v>680</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="G177" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="178" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="F177" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="G178" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="179" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+      <c r="F178" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>603</v>
+        <v>687</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>604</v>
+        <v>688</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="G179" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="180" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+      <c r="F179" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>607</v>
+        <v>692</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="G180" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="181" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+      <c r="F180" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>609</v>
+        <v>695</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>610</v>
+        <v>696</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="G181" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="182" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+      <c r="F181" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>612</v>
+        <v>699</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>613</v>
+        <v>700</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="G182" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="183" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+      <c r="F182" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>616</v>
+        <v>703</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>617</v>
+        <v>704</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="G183" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="184" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+      <c r="F183" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="G184" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="185" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+      <c r="F184" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>623</v>
+        <v>711</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>624</v>
+        <v>712</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="G185" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="186" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+      <c r="F185" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>580</v>
+        <v>664</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G186" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="187" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="F186" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>628</v>
+        <v>716</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="G187" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="188" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+      <c r="F187" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>632</v>
+        <v>720</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>633</v>
+        <v>721</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="G188" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="189" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="F188" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>636</v>
+        <v>724</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>637</v>
+        <v>725</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="G189" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="190" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+      <c r="F189" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>640</v>
+        <v>728</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>641</v>
+        <v>729</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G190" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="191" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+      <c r="F190" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>644</v>
+        <v>732</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="G191" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="192" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="F191" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>647</v>
+        <v>736</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>648</v>
+        <v>737</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="G192" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="193" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="F192" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>650</v>
+        <v>740</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>651</v>
+        <v>741</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="G193" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="194" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+      <c r="F193" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>653</v>
+        <v>744</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>654</v>
+        <v>745</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="G194" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="195" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+      <c r="F194" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>656</v>
+        <v>748</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="G195" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="196" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+      <c r="F195" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>659</v>
+        <v>752</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>660</v>
+        <v>753</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="G196" t="s">
-        <v>660</v>
+        <v>754</v>
+      </c>
+      <c r="F196" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
